--- a/config/template.xlsx
+++ b/config/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC7D6FA-6720-40F4-9344-767CE16EA067}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3CA0B5-B40F-486E-B63D-0DD536571FB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,23 +693,23 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C25" s="2">
         <v>24</v>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C30" s="2">
         <v>29</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="2">
         <v>33</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="2">
         <v>34</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="2">
         <v>35</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C38" s="2">
         <v>37</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="2">
         <v>38</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="2">
         <v>39</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C41" s="2">
         <v>40</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C42" s="2">
         <v>41</v>

--- a/config/template.xlsx
+++ b/config/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3CA0B5-B40F-486E-B63D-0DD536571FB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6857D64-2736-4462-AAB4-EF3BF2AAEB4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>模板名</t>
   </si>
@@ -298,12 +298,41 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>42文字摘要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omePage</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认首页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +366,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -352,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,17 +419,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -690,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,6 +1271,28 @@
       </c>
       <c r="D42" s="2"/>
     </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/template.xlsx
+++ b/config/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC7D6FA-6720-40F4-9344-767CE16EA067}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6857D64-2736-4462-AAB4-EF3BF2AAEB4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>模板名</t>
   </si>
@@ -298,12 +298,41 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>42文字摘要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omePage</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认首页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +366,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -352,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,17 +419,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -690,26 +749,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>84</v>
@@ -720,10 +779,10 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -732,10 +791,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -744,10 +803,10 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -756,10 +815,10 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -768,10 +827,10 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -780,10 +839,10 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -792,10 +851,10 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -804,10 +863,10 @@
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -816,10 +875,10 @@
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -828,10 +887,10 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -840,10 +899,10 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -852,10 +911,10 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
@@ -864,10 +923,10 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
@@ -876,10 +935,10 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -888,10 +947,10 @@
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -900,10 +959,10 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -912,10 +971,10 @@
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -924,10 +983,10 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -936,10 +995,10 @@
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
@@ -948,10 +1007,10 @@
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -960,10 +1019,10 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
@@ -972,10 +1031,10 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -984,10 +1043,10 @@
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
@@ -996,10 +1055,10 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C25" s="2">
         <v>24</v>
@@ -1008,10 +1067,10 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
@@ -1020,10 +1079,10 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
@@ -1032,10 +1091,10 @@
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
@@ -1044,10 +1103,10 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
@@ -1056,10 +1115,10 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C30" s="2">
         <v>29</v>
@@ -1068,10 +1127,10 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
@@ -1080,10 +1139,10 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
@@ -1094,10 +1153,10 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
@@ -1106,10 +1165,10 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="2">
         <v>33</v>
@@ -1118,10 +1177,10 @@
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="2">
         <v>34</v>
@@ -1130,10 +1189,10 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="2">
         <v>35</v>
@@ -1142,10 +1201,10 @@
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
@@ -1154,10 +1213,10 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C38" s="2">
         <v>37</v>
@@ -1166,10 +1225,10 @@
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="2">
         <v>38</v>
@@ -1178,10 +1237,10 @@
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="2">
         <v>39</v>
@@ -1190,10 +1249,10 @@
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C41" s="2">
         <v>40</v>
@@ -1202,15 +1261,37 @@
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C42" s="2">
         <v>41</v>
       </c>
       <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
